--- a/TemperatureData/GilletPond/0301_2024.xlsx
+++ b/TemperatureData/GilletPond/0301_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice.sharepoint.com/sites/TeamMosher/Shared Documents/General/People/Scott, Reed/VTADS/HoboLoggerData/GilletPond/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepos\VTADS\TemperatureData\GilletPond\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19E9F870-EDF3-4E3A-B292-5E26B920D835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E936F66-4037-4320-85D0-2F76D5D60656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{814FC70B-EC68-4126-BFF6-67EFAA0C259E}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{814FC70B-EC68-4126-BFF6-67EFAA0C259E}"/>
   </bookViews>
   <sheets>
     <sheet name="0301_2024" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Plot Title: Gillet Pond</t>
   </si>
@@ -53,9 +53,6 @@
     <t>End Of File (LGR S/N: 21422126)</t>
   </si>
   <si>
-    <t>Logged</t>
-  </si>
-  <si>
     <t># Gillet Pond</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t># Logger was collected at 08/13/2024 at 11:08</t>
+  </si>
+  <si>
+    <t># All data after this date/time was deleted</t>
   </si>
 </sst>
 </file>
@@ -930,9 +930,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A9D0DC-B4AB-4706-A061-50C33133179B}">
-  <dimension ref="A1:I5970"/>
+  <dimension ref="A1:I5951"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5929" workbookViewId="0">
+      <selection activeCell="A5970" sqref="A5952:XFD5970"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -84259,266 +84261,6 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5952" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5952">
-        <v>5950</v>
-      </c>
-      <c r="B5952" s="1">
-        <v>45517.46875</v>
-      </c>
-      <c r="C5952">
-        <v>80.382000000000005</v>
-      </c>
-      <c r="D5952">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5953" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5953">
-        <v>5951</v>
-      </c>
-      <c r="B5953" s="1">
-        <v>45517.479166666664</v>
-      </c>
-      <c r="C5953">
-        <v>82.686000000000007</v>
-      </c>
-      <c r="D5953">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5954" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5954">
-        <v>5952</v>
-      </c>
-      <c r="B5954" s="1">
-        <v>45517.489583333336</v>
-      </c>
-      <c r="C5954">
-        <v>81.796999999999997</v>
-      </c>
-      <c r="D5954">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5955" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5955">
-        <v>5953</v>
-      </c>
-      <c r="B5955" s="1">
-        <v>45517.5</v>
-      </c>
-      <c r="C5955">
-        <v>88.099000000000004</v>
-      </c>
-      <c r="D5955">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5956" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5956">
-        <v>5954</v>
-      </c>
-      <c r="B5956" s="1">
-        <v>45517.510416666664</v>
-      </c>
-      <c r="C5956">
-        <v>87.915000000000006</v>
-      </c>
-      <c r="D5956">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5957" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5957">
-        <v>5955</v>
-      </c>
-      <c r="B5957" s="1">
-        <v>45517.520833333336</v>
-      </c>
-      <c r="C5957">
-        <v>81.09</v>
-      </c>
-      <c r="D5957">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5958" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5958">
-        <v>5956</v>
-      </c>
-      <c r="B5958" s="1">
-        <v>45517.53125</v>
-      </c>
-      <c r="C5958">
-        <v>74.619</v>
-      </c>
-      <c r="D5958">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5959" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5959">
-        <v>5957</v>
-      </c>
-      <c r="B5959" s="1">
-        <v>45517.541666666664</v>
-      </c>
-      <c r="C5959">
-        <v>71.338999999999999</v>
-      </c>
-      <c r="D5959">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5960" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5960">
-        <v>5958</v>
-      </c>
-      <c r="B5960" s="1">
-        <v>45517.552083333336</v>
-      </c>
-      <c r="C5960">
-        <v>72.372</v>
-      </c>
-      <c r="D5960">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5961" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5961">
-        <v>5959</v>
-      </c>
-      <c r="B5961" s="1">
-        <v>45517.5625</v>
-      </c>
-      <c r="C5961">
-        <v>75.311999999999998</v>
-      </c>
-      <c r="D5961">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5962" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5962">
-        <v>5960</v>
-      </c>
-      <c r="B5962" s="1">
-        <v>45517.572916666664</v>
-      </c>
-      <c r="C5962">
-        <v>76.528000000000006</v>
-      </c>
-      <c r="D5962">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5963" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5963">
-        <v>5961</v>
-      </c>
-      <c r="B5963" s="1">
-        <v>45517.583333333336</v>
-      </c>
-      <c r="C5963">
-        <v>73.753</v>
-      </c>
-      <c r="D5963">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5964" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5964">
-        <v>5962</v>
-      </c>
-      <c r="B5964" s="1">
-        <v>45517.59375</v>
-      </c>
-      <c r="C5964">
-        <v>71.338999999999999</v>
-      </c>
-      <c r="D5964">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5965" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5965">
-        <v>5963</v>
-      </c>
-      <c r="B5965" s="1">
-        <v>45517.604166666664</v>
-      </c>
-      <c r="C5965">
-        <v>70.823999999999998</v>
-      </c>
-      <c r="D5965">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5966" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5966">
-        <v>5964</v>
-      </c>
-      <c r="B5966" s="1">
-        <v>45517.614583333336</v>
-      </c>
-      <c r="C5966">
-        <v>70.48</v>
-      </c>
-      <c r="D5966">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5967" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5967">
-        <v>5965</v>
-      </c>
-      <c r="B5967" s="1">
-        <v>45517.619884259257</v>
-      </c>
-      <c r="E5967" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5968" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5968">
-        <v>5966</v>
-      </c>
-      <c r="B5968" s="1">
-        <v>45517.621701388889</v>
-      </c>
-      <c r="F5968" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5969" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5969">
-        <v>5967</v>
-      </c>
-      <c r="B5969" s="1">
-        <v>45517.621782407405</v>
-      </c>
-      <c r="E5969" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5969" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5970" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5970">
-        <v>5968</v>
-      </c>
-      <c r="B5970" s="1">
-        <v>45517.62190972222</v>
-      </c>
-      <c r="H5970" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5970" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -84526,36 +84268,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F42641-F751-439C-B7BD-7936F576F32E}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -84792,15 +84539,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="94106a43-364c-4431-a764-9e3dd608a139" xsi:nil="true"/>
@@ -84811,14 +84549,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4875245D-9793-48FF-AE8A-4A25FEE5E147}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4875245D-9793-48FF-AE8A-4A25FEE5E147}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72C8E545-2B7C-46BA-8DAF-D33BCA2597E3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3065050-BB1D-4E9D-AFDC-EB319B6D9027}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3065050-BB1D-4E9D-AFDC-EB319B6D9027}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72C8E545-2B7C-46BA-8DAF-D33BCA2597E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>